--- a/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
+++ b/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>游戏世界观:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在恰当的时机,玩家通过选择食材和调料分别放到锅里,右边的积分板会显示相应的分数。每当每种料理烹饪完成会有一个相应的分数加成，然后跟换新的料理！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,10 +92,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,6 +118,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>665691</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEED7E20-C348-43EE-ADF2-911F91EEC270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809624" y="2724150"/>
+          <a:ext cx="6028267" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -408,7 +473,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -428,7 +493,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -448,7 +513,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -477,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -497,7 +562,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -517,7 +582,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -537,7 +602,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -557,7 +622,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -577,7 +642,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -597,17 +662,480 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:S11"/>
+    <mergeCell ref="K16:T34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
+++ b/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>游戏世界观:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,7 +48,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在恰当的时机,玩家通过选择食材和调料分别放到锅里,右边的积分板会显示相应的分数。每当每种料理烹饪完成会有一个相应的分数加成，然后跟换新的料理！</t>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">关卡，解谜，策略
+玩家需要进入对应的关卡收集物品,获取方式为定时定量的完成任务！这里举个
+例子：给出4分钟制作一碗鸡蛋青菜面?（前期煎鸡蛋2分钟，煮面2分钟，烧水2分钟）
+思考：煎鸡蛋2分钟，煮面2分钟，烧水2分钟，根本做不完！但是我们最多提供了6个锅。你应该知道如何处理的！
+对于游戏一般过程，
+1、选择锅 (高压过，平底锅，煮水锅等等)
+2、适当时刻提示放入相应的食材和调料（界面会有些提示，倒计时等）
+3、时间组合
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,10 +111,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -441,7 +457,7 @@
   <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K16" sqref="K16:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,86 +468,86 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
       <c r="U5" t="s">
         <v>3</v>
       </c>
@@ -543,140 +559,146 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="U6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -687,21 +709,21 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -712,21 +734,21 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -737,21 +759,21 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -764,15 +786,15 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -785,15 +807,15 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -806,15 +828,15 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -827,15 +849,15 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -848,15 +870,15 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -869,15 +891,15 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -890,15 +912,15 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -911,15 +933,15 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -932,15 +954,15 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -953,15 +975,15 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -974,15 +996,15 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -995,15 +1017,15 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1016,15 +1038,15 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -1037,15 +1059,15 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -1058,15 +1080,15 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -1079,54 +1101,54 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
+++ b/Doc/一个厨师九个锅/一个厨师九个锅.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -61,8 +61,9 @@
 例子：给出4分钟制作一碗鸡蛋青菜面?（前期煎鸡蛋2分钟，煮面2分钟，烧水2分钟）
 思考：煎鸡蛋2分钟，煮面2分钟，烧水2分钟，根本做不完！但是我们最多提供了6个锅。你应该知道如何处理的！
 对于游戏一般过程，
+玩家通过观察菜谱上的成品图片自己尝试烹饪可是设置计时等
 1、选择锅 (高压过，平底锅，煮水锅等等)
-2、适当时刻提示放入相应的食材和调料（界面会有些提示，倒计时等）
+2、适当时刻提示放入相应的食材和调料（观察图的变化做出选择）
 3、时间组合
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:T34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
